--- a/data/datawclass.xlsx
+++ b/data/datawclass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ansori San\Downloads\Documents\Perkuliahan RPL\Semester 4\Web Programming\tubes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4anak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE714CA-D68C-4D6C-AA95-71B1251FA907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6313787-8282-40BA-B74E-EF0911A52AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7995" yWindow="1080" windowWidth="4920" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>10-F</t>
   </si>
@@ -36,13 +36,103 @@
     <t>12-F</t>
   </si>
   <si>
-    <t>Hendriyana</t>
-  </si>
-  <si>
-    <t>M.Iqbal A</t>
-  </si>
-  <si>
-    <t>Deden</t>
+    <t>10-A</t>
+  </si>
+  <si>
+    <t>10-B</t>
+  </si>
+  <si>
+    <t>10-C</t>
+  </si>
+  <si>
+    <t>10-D</t>
+  </si>
+  <si>
+    <t>10-E</t>
+  </si>
+  <si>
+    <t>Bagas</t>
+  </si>
+  <si>
+    <t>Bagus</t>
+  </si>
+  <si>
+    <t>Budi</t>
+  </si>
+  <si>
+    <t>Deni</t>
+  </si>
+  <si>
+    <t>Anisa</t>
+  </si>
+  <si>
+    <t>Alia</t>
+  </si>
+  <si>
+    <t>11-A</t>
+  </si>
+  <si>
+    <t>11-B</t>
+  </si>
+  <si>
+    <t>11-C</t>
+  </si>
+  <si>
+    <t>11-D</t>
+  </si>
+  <si>
+    <t>11-E</t>
+  </si>
+  <si>
+    <t>12-A</t>
+  </si>
+  <si>
+    <t>12-B</t>
+  </si>
+  <si>
+    <t>12-C</t>
+  </si>
+  <si>
+    <t>12-D</t>
+  </si>
+  <si>
+    <t>12-E</t>
+  </si>
+  <si>
+    <t>Satou</t>
+  </si>
+  <si>
+    <t>Satoshi</t>
+  </si>
+  <si>
+    <t>Hikari</t>
+  </si>
+  <si>
+    <t>Haru</t>
+  </si>
+  <si>
+    <t>Fuka</t>
+  </si>
+  <si>
+    <t>Majime</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Winny</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
   </si>
 </sst>
 </file>
@@ -66,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -89,13 +179,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,26 +494,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/datawclass.xlsx
+++ b/data/datawclass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4anak\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6313787-8282-40BA-B74E-EF0911A52AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6BF10BF-57BE-4005-8B38-BA9BF9B4AD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7995" yWindow="1080" windowWidth="4920" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3915" yWindow="2865" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Anisa</t>
   </si>
   <si>
-    <t>Alia</t>
-  </si>
-  <si>
     <t>11-A</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Dian Anggraini</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,47 +537,47 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,47 +585,47 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -633,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
